--- a/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A5A162-8F92-43FF-AC7C-0E5A1C3FDA55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A82A0-920A-42D3-81E0-D9E5C75F9D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,6 +115,33 @@
   </si>
   <si>
     <t>总房间数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本关包含的敌人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;int&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本关boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,7 +174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,26 +479,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="22.75" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="7" max="7" width="16.125" customWidth="1"/>
-    <col min="8" max="8" width="16.75" customWidth="1"/>
-    <col min="9" max="9" width="15.625" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
-    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="22.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -505,8 +535,14 @@
       <c r="K1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -540,8 +576,14 @@
       <c r="K2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,8 +617,14 @@
       <c r="K3" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -610,8 +658,14 @@
       <c r="K4" s="1">
         <v>5</v>
       </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -645,8 +699,14 @@
       <c r="K5" s="1">
         <v>5</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -680,8 +740,14 @@
       <c r="K6" s="1">
         <v>5</v>
       </c>
+      <c r="L6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="1">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -715,617 +781,12 @@
       <c r="K7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51A82A0-920A-42D3-81E0-D9E5C75F9D05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1BCF9-D6A2-4132-9ABF-31C7B60FFEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,22 @@
   </si>
   <si>
     <t>boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>specialRoomCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropWeapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊房间数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落武器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -479,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -498,10 +514,13 @@
     <col min="10" max="10" width="16.375" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="16.125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="1"/>
+    <col min="13" max="13" width="9" style="1"/>
+    <col min="14" max="14" width="17.25" style="1" customWidth="1"/>
+    <col min="15" max="15" width="14.875" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -541,8 +560,14 @@
       <c r="M1" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -582,8 +607,14 @@
       <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="N2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -623,8 +654,14 @@
       <c r="M3" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="N3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -664,8 +701,14 @@
       <c r="M4" s="1">
         <v>-1</v>
       </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -705,8 +748,14 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -746,8 +795,14 @@
       <c r="M6" s="1">
         <v>-1</v>
       </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -786,6 +841,12 @@
       </c>
       <c r="M7" s="1">
         <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1BCF9-D6A2-4132-9ABF-31C7B60FFEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC54E25D-36AC-45F7-AC82-C92F1EFE0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -498,7 +498,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -681,16 +681,16 @@
         <v>12</v>
       </c>
       <c r="G4" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H4" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J4" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K4" s="1">
         <v>5</v>
@@ -728,16 +728,16 @@
         <v>12</v>
       </c>
       <c r="G5" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H5" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K5" s="1">
         <v>5</v>
@@ -775,16 +775,16 @@
         <v>12</v>
       </c>
       <c r="G6" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H6" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I6" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J6" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K6" s="1">
         <v>5</v>
@@ -822,16 +822,16 @@
         <v>12</v>
       </c>
       <c r="G7" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="H7" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I7" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="J7" s="1">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="K7" s="1">
         <v>5</v>

--- a/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
+++ b/Imitate-Soul-Knight-Project/配置表/关卡配置.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anyue\unityworkstation\Imitate-Soul-Knight\Imitate-Soul-Knight-Project\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC54E25D-36AC-45F7-AC82-C92F1EFE0DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A040C237-D9C1-4D84-B107-4F7008160846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="35">
   <si>
     <t>章节</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,10 @@
   </si>
   <si>
     <t>掉落武器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[1,2]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M4" s="1">
         <v>-1</v>
@@ -743,7 +747,7 @@
         <v>5</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M5" s="1">
         <v>1</v>
@@ -790,7 +794,7 @@
         <v>5</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M6" s="1">
         <v>-1</v>
@@ -837,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
